--- a/utilities/Excel_Sheets/Products/NGP_CAMICO.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_CAMICO.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCI_Regression" sheetId="6" r:id="rId1"/>
     <sheet name="No_PCI_Regression" sheetId="7" r:id="rId2"/>
+    <sheet name="BALLPARK" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BALLPARK!$A$1:$J$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">No_PCI_Regression!$A$1:$J$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PCI_Regression!$A$1:$J$58</definedName>
   </definedNames>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -488,7 +490,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
@@ -2020,4 +2022,773 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2803A92A-7D3D-47E2-91C4-9F29CB281CB4}">
+  <dimension ref="A1:J58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="78.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" ref="C2" ca="1" si="0">TODAY()</f>
+        <v>43385</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5000000</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J58" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/utilities/Excel_Sheets/Products/NGP_CAMICO.xlsx
+++ b/utilities/Excel_Sheets/Products/NGP_CAMICO.xlsx
@@ -2031,7 +2031,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
